--- a/Class_Data/나.xlsx
+++ b/Class_Data/나.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\구채린\Desktop\UiPath\Uipath 예제\9. 데이터 피벗\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PCNI\Desktop\공부\UiPath\001_ACME\Class_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EF526E-D440-4354-8AEE-D1978B853FF1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PT" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <pivotCaches>
+    <pivotCache cacheId="6" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="26">
   <si>
     <t>번호</t>
   </si>
@@ -102,12 +105,18 @@
   </si>
   <si>
     <t>FR0DO-715</t>
+  </si>
+  <si>
+    <t>총액</t>
+  </si>
+  <si>
+    <t>합계</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
   </numFmts>
@@ -147,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -164,6 +173,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -179,6 +193,329 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="PCNI" refreshedDate="45378.543546180554" createdVersion="1" refreshedVersion="6" recordCount="19">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G20" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="번호" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="29"/>
+    </cacheField>
+    <cacheField name="품명" numFmtId="0">
+      <sharedItems count="6">
+        <s v="라이언"/>
+        <s v="튜브"/>
+        <s v="네오"/>
+        <s v="콘"/>
+        <s v="프로도"/>
+        <s v="무지"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="본부" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="WBS번호" numFmtId="49">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="만기일" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-08-31T00:00:00" maxDate="2019-09-01T00:00:00"/>
+    </cacheField>
+    <cacheField name="금액" numFmtId="176">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="11758" maxValue="956116"/>
+    </cacheField>
+    <cacheField name="비고" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="19">
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <s v="본사"/>
+    <s v="L10N-3215"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="67398"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="1"/>
+    <s v="대구"/>
+    <s v="Y0U-TUBE"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="903777"/>
+    <m/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="2"/>
+    <s v="부산"/>
+    <s v="NE0-6154"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="262583"/>
+    <m/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="3"/>
+    <s v="대전"/>
+    <s v="C0N-319"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="621388"/>
+    <m/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <s v="인천"/>
+    <s v="FR0DO-715"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="457768"/>
+    <m/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="5"/>
+    <s v="대구"/>
+    <s v="MUZ1-877"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="816572"/>
+    <m/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="3"/>
+    <s v="대전"/>
+    <s v="C0N-319"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="652952"/>
+    <m/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="0"/>
+    <s v="본사"/>
+    <s v="L10N-3215"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="11758"/>
+    <m/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="4"/>
+    <s v="부산"/>
+    <s v="FR0DO-715"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="370562"/>
+    <m/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="2"/>
+    <s v="부산"/>
+    <s v="NE0-6154"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="206942"/>
+    <m/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="3"/>
+    <s v="인천"/>
+    <s v="C0N-319"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="565747"/>
+    <m/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="1"/>
+    <s v="대구"/>
+    <s v="Y0U-TUBE"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="924552"/>
+    <m/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="5"/>
+    <s v="대전"/>
+    <s v="MUZ1-877"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="760932"/>
+    <m/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="0"/>
+    <s v="본사"/>
+    <s v="L10N-3215"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="119737"/>
+    <m/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="1"/>
+    <s v="대구"/>
+    <s v="Y0U-TUBE"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="956116"/>
+    <m/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="2"/>
+    <s v="부산"/>
+    <s v="NE0-6154"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="314922"/>
+    <m/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="5"/>
+    <s v="대전"/>
+    <s v="MUZ1-877"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="673726"/>
+    <m/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="3"/>
+    <s v="인천"/>
+    <s v="C0N-319"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="510106"/>
+    <m/>
+  </r>
+  <r>
+    <n v="29"/>
+    <x v="1"/>
+    <s v="대구"/>
+    <s v="Y0U-TUBE"/>
+    <d v="2019-08-31T00:00:00"/>
+    <n v="868911"/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="나" cacheId="6" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="데이터" grandTotalCaption="합계" updatedVersion="6" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1" rowHeaderCaption="품명">
+  <location ref="A1:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" includeNewItemsInFilter="1">
+      <items count="7">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="176" showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField showAll="0" includeNewItemsInFilter="1">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="총액" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -443,11 +780,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="9">
+        <v>784447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="9">
+        <v>198893</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="9">
+        <v>2251230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="9">
+        <v>2350193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="9">
+        <v>3653356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="9">
+        <v>828330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="9">
+        <v>10066449</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -455,9 +874,11 @@
     <col min="4" max="4" width="9" style="4"/>
     <col min="5" max="5" width="11.125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,7 +901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -500,8 +921,10 @@
         <v>67398</v>
       </c>
       <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -520,8 +943,11 @@
       <c r="F3" s="6">
         <v>903777</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
+      <c r="K3"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -540,8 +966,11 @@
       <c r="F4" s="6">
         <v>262583</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+      <c r="K4"/>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -560,8 +989,11 @@
       <c r="F5" s="6">
         <v>621388</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
+      <c r="K5"/>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -580,8 +1012,11 @@
       <c r="F6" s="6">
         <v>457768</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
+      <c r="K6"/>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -600,8 +1035,11 @@
       <c r="F7" s="6">
         <v>816572</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
+      <c r="K7"/>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -620,8 +1058,11 @@
       <c r="F8" s="6">
         <v>652952</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I8" s="8"/>
+      <c r="J8" s="9"/>
+      <c r="K8"/>
+    </row>
+    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -640,8 +1081,11 @@
       <c r="F9" s="6">
         <v>11758</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
+      <c r="K9"/>
+    </row>
+    <row r="10" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -660,8 +1104,11 @@
       <c r="F10" s="6">
         <v>370562</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+    </row>
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -680,8 +1127,11 @@
       <c r="F11" s="6">
         <v>206942</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -700,8 +1150,11 @@
       <c r="F12" s="6">
         <v>565747</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -720,8 +1173,11 @@
       <c r="F13" s="6">
         <v>924552</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -740,8 +1196,11 @@
       <c r="F14" s="6">
         <v>760932</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -760,8 +1219,11 @@
       <c r="F15" s="6">
         <v>119737</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -780,8 +1242,11 @@
       <c r="F16" s="6">
         <v>956116</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -800,8 +1265,11 @@
       <c r="F17" s="6">
         <v>314922</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>12</v>
       </c>
@@ -820,8 +1288,11 @@
       <c r="F18" s="6">
         <v>673726</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+    </row>
+    <row r="19" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -841,7 +1312,7 @@
         <v>510106</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>29</v>
       </c>

--- a/Class_Data/나.xlsx
+++ b/Class_Data/나.xlsx
@@ -12,13 +12,9 @@
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
-    <sheet name="PT" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
   <si>
     <t>번호</t>
   </si>
@@ -105,12 +101,6 @@
   </si>
   <si>
     <t>FR0DO-715</t>
-  </si>
-  <si>
-    <t>총액</t>
-  </si>
-  <si>
-    <t>합계</t>
   </si>
 </sst>
 </file>
@@ -156,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -177,7 +167,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -193,329 +182,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="PCNI" refreshedDate="45378.543546180554" createdVersion="1" refreshedVersion="6" recordCount="19">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G20" sheet="Sheet1"/>
-  </cacheSource>
-  <cacheFields count="7">
-    <cacheField name="번호" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="29"/>
-    </cacheField>
-    <cacheField name="품명" numFmtId="0">
-      <sharedItems count="6">
-        <s v="라이언"/>
-        <s v="튜브"/>
-        <s v="네오"/>
-        <s v="콘"/>
-        <s v="프로도"/>
-        <s v="무지"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="본부" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="WBS번호" numFmtId="49">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="만기일" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2019-08-31T00:00:00" maxDate="2019-09-01T00:00:00"/>
-    </cacheField>
-    <cacheField name="금액" numFmtId="176">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="11758" maxValue="956116"/>
-    </cacheField>
-    <cacheField name="비고" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="19">
-  <r>
-    <n v="1"/>
-    <x v="0"/>
-    <s v="본사"/>
-    <s v="L10N-3215"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="67398"/>
-    <m/>
-  </r>
-  <r>
-    <n v="2"/>
-    <x v="1"/>
-    <s v="대구"/>
-    <s v="Y0U-TUBE"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="903777"/>
-    <m/>
-  </r>
-  <r>
-    <n v="3"/>
-    <x v="2"/>
-    <s v="부산"/>
-    <s v="NE0-6154"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="262583"/>
-    <m/>
-  </r>
-  <r>
-    <n v="4"/>
-    <x v="3"/>
-    <s v="대전"/>
-    <s v="C0N-319"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="621388"/>
-    <m/>
-  </r>
-  <r>
-    <n v="5"/>
-    <x v="4"/>
-    <s v="인천"/>
-    <s v="FR0DO-715"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="457768"/>
-    <m/>
-  </r>
-  <r>
-    <n v="6"/>
-    <x v="5"/>
-    <s v="대구"/>
-    <s v="MUZ1-877"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="816572"/>
-    <m/>
-  </r>
-  <r>
-    <n v="7"/>
-    <x v="3"/>
-    <s v="대전"/>
-    <s v="C0N-319"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="652952"/>
-    <m/>
-  </r>
-  <r>
-    <n v="8"/>
-    <x v="0"/>
-    <s v="본사"/>
-    <s v="L10N-3215"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="11758"/>
-    <m/>
-  </r>
-  <r>
-    <n v="9"/>
-    <x v="4"/>
-    <s v="부산"/>
-    <s v="FR0DO-715"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="370562"/>
-    <m/>
-  </r>
-  <r>
-    <n v="10"/>
-    <x v="2"/>
-    <s v="부산"/>
-    <s v="NE0-6154"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="206942"/>
-    <m/>
-  </r>
-  <r>
-    <n v="11"/>
-    <x v="3"/>
-    <s v="인천"/>
-    <s v="C0N-319"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="565747"/>
-    <m/>
-  </r>
-  <r>
-    <n v="12"/>
-    <x v="1"/>
-    <s v="대구"/>
-    <s v="Y0U-TUBE"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="924552"/>
-    <m/>
-  </r>
-  <r>
-    <n v="13"/>
-    <x v="5"/>
-    <s v="대전"/>
-    <s v="MUZ1-877"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="760932"/>
-    <m/>
-  </r>
-  <r>
-    <n v="14"/>
-    <x v="0"/>
-    <s v="본사"/>
-    <s v="L10N-3215"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="119737"/>
-    <m/>
-  </r>
-  <r>
-    <n v="2"/>
-    <x v="1"/>
-    <s v="대구"/>
-    <s v="Y0U-TUBE"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="956116"/>
-    <m/>
-  </r>
-  <r>
-    <n v="3"/>
-    <x v="2"/>
-    <s v="부산"/>
-    <s v="NE0-6154"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="314922"/>
-    <m/>
-  </r>
-  <r>
-    <n v="12"/>
-    <x v="5"/>
-    <s v="대전"/>
-    <s v="MUZ1-877"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="673726"/>
-    <m/>
-  </r>
-  <r>
-    <n v="18"/>
-    <x v="3"/>
-    <s v="인천"/>
-    <s v="C0N-319"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="510106"/>
-    <m/>
-  </r>
-  <r>
-    <n v="29"/>
-    <x v="1"/>
-    <s v="대구"/>
-    <s v="Y0U-TUBE"/>
-    <d v="2019-08-31T00:00:00"/>
-    <n v="868911"/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="나" cacheId="6" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="데이터" grandTotalCaption="합계" updatedVersion="6" asteriskTotals="1" showMultipleLabel="0" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" showDropZones="0" indent="0" outline="1" outlineData="1" rowHeaderCaption="품명">
-  <location ref="A1:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" includeNewItemsInFilter="1">
-      <items count="7">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="5"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="176" showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-    <pivotField showAll="0" includeNewItemsInFilter="1">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
-          <x14:pivotField fillDownLabels="1"/>
-        </ext>
-      </extLst>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="총액" fld="5" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -781,91 +447,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="9">
-        <v>784447</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="9">
-        <v>198893</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="9">
-        <v>2251230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="9">
-        <v>2350193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="9">
-        <v>3653356</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="9">
-        <v>828330</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="9">
-        <v>10066449</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
